--- a/掏寶2016-01-27.xlsx
+++ b/掏寶2016-01-27.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>允晨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>威旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甫臣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,23 +430,26 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A2:A10)</f>
         <v>0</v>
@@ -472,11 +479,15 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>SUM(H2:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I2:I10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11*5.3</f>
         <v>0</v>
@@ -506,7 +517,11 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f>H11*5.3</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>I11*5.3</f>
         <v>0</v>
       </c>
     </row>
